--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/CodeSystem-wh-condition-course.xlsx
+++ b/CodeSystem-wh-condition-course.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
